--- a/2020-10-05 드립백 프로젝트 테이블 명세 - .xlsx
+++ b/2020-10-05 드립백 프로젝트 테이블 명세 - .xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202007291619\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\Java\Spring\Team_DoubleJ_k\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="드립백 사용자정보 테이블 명세" sheetId="3" r:id="rId1"/>
     <sheet name="드립백 구글트랜드 테이블 명세" sheetId="4" r:id="rId2"/>
-    <sheet name="드립백 광주일보 테이블 명세" sheetId="5" r:id="rId3"/>
+    <sheet name="드립백 뉴스 테이블 명세" sheetId="5" r:id="rId3"/>
     <sheet name="댓글 테이블 명세" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_gtrand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>크롤링해온 구글 트랜드 정보를 저장할 테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,311 +157,315 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>이미지URL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(225)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(225)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(1300)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(1300)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링해온 늬우스 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글트랜드 주제를 보고 끄적거린 내용을 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글트랜드 댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gd_email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gd_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gd_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gd_explan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_roll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gd_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gd_score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gd_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜드 검색어와 JOIN 하기위한 seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gd_click</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(1300)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(225)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_news</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_gcoment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_google</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt_img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>게시날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지URL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNIQUE NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(225)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(225)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(1300)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(1300)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dripnews_headline</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dripnews_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dripnews_image</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dripnews_subject</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링해온 늬우스 정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글트랜드 주제를 보고 끄적거린 내용을 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글트랜드 댓글</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd_explan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_roll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd_score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성시각</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>트랜드 검색어와 JOIN 하기위한 seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd_click</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtrand_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dripnews_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(1300)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(225)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtrand_img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtrand_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtrand_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_news</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_gcoment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_user</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1178,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:L3"/>
     </sheetView>
   </sheetViews>
@@ -1859,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -1938,7 +1938,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -1960,16 +1960,16 @@
         <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -1985,16 +1985,16 @@
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -2007,19 +2007,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -2032,19 +2032,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -2237,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2917,7 +2917,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -2938,7 +2938,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -2990,13 +2990,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -3015,19 +3015,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="13"/>
@@ -3040,19 +3040,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -3065,16 +3065,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -3283,8 +3283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3964,7 +3964,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -3985,7 +3985,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -4008,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -4037,20 +4037,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4062,19 +4062,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -4087,19 +4087,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -4112,16 +4112,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="13"/>
@@ -4135,16 +4135,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="13"/>
@@ -4993,7 +4993,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>14</v>
@@ -5018,7 +5018,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -5039,7 +5039,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -5091,26 +5091,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5118,19 +5118,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -5143,19 +5143,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -5168,19 +5168,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -5193,19 +5193,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -5218,16 +5218,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -5241,16 +5241,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -5269,16 +5269,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
